--- a/data/pca/factorExposure/factorExposure_2015-08-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02385076547957507</v>
+        <v>0.01762046755532435</v>
       </c>
       <c r="C2">
-        <v>0.02615965084299085</v>
+        <v>0.04613946414905366</v>
       </c>
       <c r="D2">
-        <v>0.1315564302100728</v>
+        <v>0.1380811072743573</v>
       </c>
       <c r="E2">
-        <v>0.01474386283427351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.003641449027340036</v>
+      </c>
+      <c r="F2">
+        <v>0.002408177662798449</v>
+      </c>
+      <c r="G2">
+        <v>0.1093833856273876</v>
+      </c>
+      <c r="H2">
+        <v>0.04458756854111731</v>
+      </c>
+      <c r="I2">
+        <v>-0.05712586607033745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01111842555033877</v>
+        <v>-0.01364543291698936</v>
       </c>
       <c r="C3">
-        <v>0.03663913934140816</v>
+        <v>0.0219521547287083</v>
       </c>
       <c r="D3">
-        <v>0.01123706604370084</v>
+        <v>0.01276097090466607</v>
       </c>
       <c r="E3">
-        <v>0.03913613564058824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.03174759448989377</v>
+      </c>
+      <c r="F3">
+        <v>0.0020474376590002</v>
+      </c>
+      <c r="G3">
+        <v>0.07486059712539019</v>
+      </c>
+      <c r="H3">
+        <v>0.006327625767215382</v>
+      </c>
+      <c r="I3">
+        <v>0.08257881387771182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03633634182241979</v>
+        <v>0.02659217153954639</v>
       </c>
       <c r="C4">
-        <v>0.06933060037836544</v>
+        <v>0.09021311723582849</v>
       </c>
       <c r="D4">
-        <v>0.1387812438898648</v>
+        <v>0.1494479591268163</v>
       </c>
       <c r="E4">
-        <v>0.07188840385744767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01897567318104788</v>
+      </c>
+      <c r="F4">
+        <v>0.0848780684848421</v>
+      </c>
+      <c r="G4">
+        <v>-0.002845065237900608</v>
+      </c>
+      <c r="H4">
+        <v>0.04504657659070598</v>
+      </c>
+      <c r="I4">
+        <v>-0.01770947365890889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02707596207706136</v>
+        <v>0.02782564865585782</v>
       </c>
       <c r="C6">
-        <v>0.01438140323521624</v>
+        <v>0.03009923442958479</v>
       </c>
       <c r="D6">
-        <v>0.1445821042762251</v>
+        <v>0.1258747041591122</v>
       </c>
       <c r="E6">
-        <v>0.03487977441794853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03491719338881004</v>
+      </c>
+      <c r="F6">
+        <v>0.04904377819966975</v>
+      </c>
+      <c r="G6">
+        <v>0.04542681293812773</v>
+      </c>
+      <c r="H6">
+        <v>0.02203980235893393</v>
+      </c>
+      <c r="I6">
+        <v>0.02111892666111755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008092439627723188</v>
+        <v>0.007883529099751501</v>
       </c>
       <c r="C7">
-        <v>0.02460847239934063</v>
+        <v>0.03402909132243644</v>
       </c>
       <c r="D7">
-        <v>0.1195765213352022</v>
+        <v>0.1019147409920214</v>
       </c>
       <c r="E7">
-        <v>-0.005724620891064592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04286705807837157</v>
+      </c>
+      <c r="F7">
+        <v>0.01046187041601169</v>
+      </c>
+      <c r="G7">
+        <v>0.03328860261716447</v>
+      </c>
+      <c r="H7">
+        <v>0.06031694935289729</v>
+      </c>
+      <c r="I7">
+        <v>0.04677097781103444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.00213791365910671</v>
+        <v>-0.004612058814021049</v>
       </c>
       <c r="C8">
-        <v>0.03130343027776122</v>
+        <v>0.03749963765387158</v>
       </c>
       <c r="D8">
-        <v>0.08368082783494371</v>
+        <v>0.08253320741424255</v>
       </c>
       <c r="E8">
-        <v>0.03286694679673036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01102195846215677</v>
+      </c>
+      <c r="F8">
+        <v>0.04880436844739931</v>
+      </c>
+      <c r="G8">
+        <v>0.09573204283595908</v>
+      </c>
+      <c r="H8">
+        <v>-0.01045655719707533</v>
+      </c>
+      <c r="I8">
+        <v>0.04502157917754383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03215322152904355</v>
+        <v>0.02084513198694102</v>
       </c>
       <c r="C9">
-        <v>0.06408465898241074</v>
+        <v>0.08000339317286441</v>
       </c>
       <c r="D9">
-        <v>0.1315692582153454</v>
+        <v>0.1250052301783892</v>
       </c>
       <c r="E9">
-        <v>0.0594032708305665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01012106583960622</v>
+      </c>
+      <c r="F9">
+        <v>0.05025836482857731</v>
+      </c>
+      <c r="G9">
+        <v>-0.003222790447815473</v>
+      </c>
+      <c r="H9">
+        <v>0.04966000233582158</v>
+      </c>
+      <c r="I9">
+        <v>0.0008406093956228458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1568656805939446</v>
+        <v>0.2140971823386973</v>
       </c>
       <c r="C10">
-        <v>-0.167659097300957</v>
+        <v>-0.1216653504272571</v>
       </c>
       <c r="D10">
-        <v>0.01280850739968424</v>
+        <v>0.004657581936617155</v>
       </c>
       <c r="E10">
-        <v>0.04681005807433233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02556708327697407</v>
+      </c>
+      <c r="F10">
+        <v>0.04781508966560861</v>
+      </c>
+      <c r="G10">
+        <v>-0.007812517309187526</v>
+      </c>
+      <c r="H10">
+        <v>-0.06305114180018807</v>
+      </c>
+      <c r="I10">
+        <v>0.1069614825852028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02227501183918122</v>
+        <v>0.01352193046260139</v>
       </c>
       <c r="C11">
-        <v>0.04309726142557658</v>
+        <v>0.05254397361666346</v>
       </c>
       <c r="D11">
-        <v>0.05620873664480475</v>
+        <v>0.04926752884177978</v>
       </c>
       <c r="E11">
-        <v>-0.01312996938963253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01850577293537149</v>
+      </c>
+      <c r="F11">
+        <v>-0.01314362253824007</v>
+      </c>
+      <c r="G11">
+        <v>0.01023815671918915</v>
+      </c>
+      <c r="H11">
+        <v>0.04385246033636089</v>
+      </c>
+      <c r="I11">
+        <v>-0.0085438920359895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02440774331371337</v>
+        <v>0.01455053949633925</v>
       </c>
       <c r="C12">
-        <v>0.04160912251971727</v>
+        <v>0.04918100755757546</v>
       </c>
       <c r="D12">
-        <v>0.06836260046278884</v>
+        <v>0.05099068005713786</v>
       </c>
       <c r="E12">
-        <v>-0.0005049246743178928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01557760289301946</v>
+      </c>
+      <c r="F12">
+        <v>-0.01575192013487311</v>
+      </c>
+      <c r="G12">
+        <v>0.005999767419024636</v>
+      </c>
+      <c r="H12">
+        <v>0.07223958267000123</v>
+      </c>
+      <c r="I12">
+        <v>0.002082326567764256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003075881786209078</v>
+        <v>0.005691186798365116</v>
       </c>
       <c r="C13">
-        <v>0.02754495196575679</v>
+        <v>0.04319047325497048</v>
       </c>
       <c r="D13">
-        <v>0.1538734208341692</v>
+        <v>0.1578949237045738</v>
       </c>
       <c r="E13">
-        <v>0.03768550741538836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03909079935141393</v>
+      </c>
+      <c r="F13">
+        <v>0.04102576435803719</v>
+      </c>
+      <c r="G13">
+        <v>0.05660999228415037</v>
+      </c>
+      <c r="H13">
+        <v>0.05596112420081831</v>
+      </c>
+      <c r="I13">
+        <v>0.0760013174494661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002383112718780251</v>
+        <v>0.0005689090674823721</v>
       </c>
       <c r="C14">
-        <v>0.02265055150338039</v>
+        <v>0.02914421920417257</v>
       </c>
       <c r="D14">
-        <v>0.1103262208086535</v>
+        <v>0.1059375741355161</v>
       </c>
       <c r="E14">
-        <v>0.02561552224621084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01825037167099051</v>
+      </c>
+      <c r="F14">
+        <v>0.02006265704025246</v>
+      </c>
+      <c r="G14">
+        <v>0.06566858918831085</v>
+      </c>
+      <c r="H14">
+        <v>0.1027705793497808</v>
+      </c>
+      <c r="I14">
+        <v>0.01984146232835208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002643529009824021</v>
+        <v>0.0004289261420460027</v>
       </c>
       <c r="C15">
-        <v>0.01102518941571975</v>
+        <v>0.01710458965845695</v>
       </c>
       <c r="D15">
-        <v>0.02402875809191869</v>
+        <v>0.049338129732253</v>
       </c>
       <c r="E15">
-        <v>-0.01043911252748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.003676083422230575</v>
+      </c>
+      <c r="F15">
+        <v>0.002598696773514173</v>
+      </c>
+      <c r="G15">
+        <v>0.02306032278972084</v>
+      </c>
+      <c r="H15">
+        <v>0.01292318949160865</v>
+      </c>
+      <c r="I15">
+        <v>-0.02015440905438375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02043931260037984</v>
+        <v>0.01351441209284218</v>
       </c>
       <c r="C16">
-        <v>0.03947488219182136</v>
+        <v>0.04722356893952048</v>
       </c>
       <c r="D16">
-        <v>0.06359689261513816</v>
+        <v>0.04976424068396817</v>
       </c>
       <c r="E16">
-        <v>-0.005333976410630472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01919882618212103</v>
+      </c>
+      <c r="F16">
+        <v>-0.007242609419671483</v>
+      </c>
+      <c r="G16">
+        <v>0.002653705736976918</v>
+      </c>
+      <c r="H16">
+        <v>0.05122894684766791</v>
+      </c>
+      <c r="I16">
+        <v>-0.006608837217275862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.00476882235146095</v>
+        <v>0.0007155839502445775</v>
       </c>
       <c r="C19">
-        <v>0.02270355502222185</v>
+        <v>0.02013305118043829</v>
       </c>
       <c r="D19">
-        <v>0.1371446195486292</v>
+        <v>0.0907788284820754</v>
       </c>
       <c r="E19">
-        <v>0.0707757086996845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02208623093738254</v>
+      </c>
+      <c r="F19">
+        <v>0.007972595298911363</v>
+      </c>
+      <c r="G19">
+        <v>0.03526462786389686</v>
+      </c>
+      <c r="H19">
+        <v>0.06328182302878409</v>
+      </c>
+      <c r="I19">
+        <v>0.03529136645567223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004914629853845883</v>
+        <v>0.005187829421126998</v>
       </c>
       <c r="C20">
-        <v>0.03137262010313557</v>
+        <v>0.04028550410895129</v>
       </c>
       <c r="D20">
-        <v>0.09388063060148302</v>
+        <v>0.1011130378984537</v>
       </c>
       <c r="E20">
-        <v>0.04397873393569725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.001723660216496259</v>
+      </c>
+      <c r="F20">
+        <v>0.02985697159318299</v>
+      </c>
+      <c r="G20">
+        <v>0.03775203046850372</v>
+      </c>
+      <c r="H20">
+        <v>0.05876229751563384</v>
+      </c>
+      <c r="I20">
+        <v>0.02326181471147531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00500904414015545</v>
+        <v>0.001171332766182711</v>
       </c>
       <c r="C21">
-        <v>0.03545069879946612</v>
+        <v>0.0425818345879323</v>
       </c>
       <c r="D21">
-        <v>0.1725442540653397</v>
+        <v>0.1446274211615684</v>
       </c>
       <c r="E21">
-        <v>0.08093489256761331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.01727255227196465</v>
+      </c>
+      <c r="F21">
+        <v>0.06158987477090214</v>
+      </c>
+      <c r="G21">
+        <v>0.07568885986272218</v>
+      </c>
+      <c r="H21">
+        <v>0.1450416011041365</v>
+      </c>
+      <c r="I21">
+        <v>0.09225524651053779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002168457138188279</v>
+        <v>-0.002829820570664899</v>
       </c>
       <c r="C22">
-        <v>0.05667148796264589</v>
+        <v>0.06921339371555885</v>
       </c>
       <c r="D22">
-        <v>0.1960623827474476</v>
+        <v>0.2401324025982927</v>
       </c>
       <c r="E22">
-        <v>-0.05250687166333939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04144358845436195</v>
+      </c>
+      <c r="F22">
+        <v>0.02957728544951419</v>
+      </c>
+      <c r="G22">
+        <v>0.1718374895424034</v>
+      </c>
+      <c r="H22">
+        <v>-0.4643140697119722</v>
+      </c>
+      <c r="I22">
+        <v>-0.2334609585977035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001973603346729368</v>
+        <v>-0.002405887769938521</v>
       </c>
       <c r="C23">
-        <v>0.05712998529419189</v>
+        <v>0.07010705139947192</v>
       </c>
       <c r="D23">
-        <v>0.1956056522427266</v>
+        <v>0.240837846817658</v>
       </c>
       <c r="E23">
-        <v>-0.05228755747876715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.03848832710322084</v>
+      </c>
+      <c r="F23">
+        <v>0.02864859760910662</v>
+      </c>
+      <c r="G23">
+        <v>0.1704054034099941</v>
+      </c>
+      <c r="H23">
+        <v>-0.4643189306682585</v>
+      </c>
+      <c r="I23">
+        <v>-0.2346496676893798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02746359577210209</v>
+        <v>0.01517444455371956</v>
       </c>
       <c r="C24">
-        <v>0.0577287779271219</v>
+        <v>0.06413846194615719</v>
       </c>
       <c r="D24">
-        <v>0.07437044952405818</v>
+        <v>0.05836547617156197</v>
       </c>
       <c r="E24">
-        <v>0.0009700498254340116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02064184090634717</v>
+      </c>
+      <c r="F24">
+        <v>-0.005983538746905472</v>
+      </c>
+      <c r="G24">
+        <v>0.01589537294099979</v>
+      </c>
+      <c r="H24">
+        <v>0.07529625928364307</v>
+      </c>
+      <c r="I24">
+        <v>-0.008132276027224928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03254466225522369</v>
+        <v>0.01989647858161125</v>
       </c>
       <c r="C25">
-        <v>0.04914309585134692</v>
+        <v>0.06009490456666162</v>
       </c>
       <c r="D25">
-        <v>0.0678648238157606</v>
+        <v>0.05576306484940552</v>
       </c>
       <c r="E25">
-        <v>0.007223476291840053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008468082685304705</v>
+      </c>
+      <c r="F25">
+        <v>-0.009708322113065644</v>
+      </c>
+      <c r="G25">
+        <v>0.003764162637869918</v>
+      </c>
+      <c r="H25">
+        <v>0.04517929066121019</v>
+      </c>
+      <c r="I25">
+        <v>-0.002828799479335827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005341627786864474</v>
+        <v>0.006510994821271287</v>
       </c>
       <c r="C26">
-        <v>0.01504954269189191</v>
+        <v>0.02362065233967507</v>
       </c>
       <c r="D26">
-        <v>0.07965164983175302</v>
+        <v>0.07482959125705123</v>
       </c>
       <c r="E26">
-        <v>0.02530921376476603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.01829305317625907</v>
+      </c>
+      <c r="F26">
+        <v>0.02343619457666361</v>
+      </c>
+      <c r="G26">
+        <v>0.035092716503569</v>
+      </c>
+      <c r="H26">
+        <v>0.06718720030536632</v>
+      </c>
+      <c r="I26">
+        <v>0.04893412588931122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2404751323701982</v>
+        <v>0.3105981706553338</v>
       </c>
       <c r="C28">
-        <v>-0.2152707643035576</v>
+        <v>-0.1420804008249824</v>
       </c>
       <c r="D28">
-        <v>0.01359071150845903</v>
+        <v>-0.004055879121843013</v>
       </c>
       <c r="E28">
-        <v>0.06748043690966649</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04714386770450099</v>
+      </c>
+      <c r="F28">
+        <v>0.03671727160008932</v>
+      </c>
+      <c r="G28">
+        <v>-0.02325203256104822</v>
+      </c>
+      <c r="H28">
+        <v>-0.0328062535677832</v>
+      </c>
+      <c r="I28">
+        <v>0.07169230587705966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002198647064989736</v>
+        <v>0.0008460235217040724</v>
       </c>
       <c r="C29">
-        <v>0.02074477612225179</v>
+        <v>0.02864364404716607</v>
       </c>
       <c r="D29">
-        <v>0.1027621940036352</v>
+        <v>0.1029353899643724</v>
       </c>
       <c r="E29">
-        <v>0.01975455315862993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03240442260245271</v>
+      </c>
+      <c r="F29">
+        <v>0.02977133698851096</v>
+      </c>
+      <c r="G29">
+        <v>0.05105099453679917</v>
+      </c>
+      <c r="H29">
+        <v>0.1010531489922801</v>
+      </c>
+      <c r="I29">
+        <v>0.02995266201156702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02056245006250028</v>
+        <v>0.01918039371120534</v>
       </c>
       <c r="C30">
-        <v>0.05875143398574303</v>
+        <v>0.07849364020667793</v>
       </c>
       <c r="D30">
-        <v>0.1658250820207535</v>
+        <v>0.1661104534552126</v>
       </c>
       <c r="E30">
-        <v>0.01290405389421725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03742714411755622</v>
+      </c>
+      <c r="F30">
+        <v>0.03517534269756051</v>
+      </c>
+      <c r="G30">
+        <v>0.03780160268535805</v>
+      </c>
+      <c r="H30">
+        <v>0.03677363602180052</v>
+      </c>
+      <c r="I30">
+        <v>-0.05371203315324247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04298655331458883</v>
+        <v>0.01851934568390178</v>
       </c>
       <c r="C31">
-        <v>0.08289696218191915</v>
+        <v>0.08883776402718906</v>
       </c>
       <c r="D31">
-        <v>0.08100217665399057</v>
+        <v>0.04643816091777003</v>
       </c>
       <c r="E31">
-        <v>0.0252686650344674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008206751047154341</v>
+      </c>
+      <c r="F31">
+        <v>0.01731030224221922</v>
+      </c>
+      <c r="G31">
+        <v>0.02401959702329201</v>
+      </c>
+      <c r="H31">
+        <v>0.03938247768157176</v>
+      </c>
+      <c r="I31">
+        <v>0.06012532765284781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02258810138267653</v>
+        <v>0.01761525927694417</v>
       </c>
       <c r="C32">
-        <v>0.03044576601811118</v>
+        <v>0.03767699791401077</v>
       </c>
       <c r="D32">
-        <v>0.1110471749656682</v>
+        <v>0.1154192332174956</v>
       </c>
       <c r="E32">
-        <v>0.05715376112704571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0005848281363936516</v>
+      </c>
+      <c r="F32">
+        <v>0.0450410943889776</v>
+      </c>
+      <c r="G32">
+        <v>0.02728873552772898</v>
+      </c>
+      <c r="H32">
+        <v>0.01572645812189023</v>
+      </c>
+      <c r="I32">
+        <v>0.07753024375567788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01627863583450584</v>
+        <v>0.01362230974665059</v>
       </c>
       <c r="C33">
-        <v>0.04087775663357686</v>
+        <v>0.05406135426390311</v>
       </c>
       <c r="D33">
-        <v>0.1526075586900228</v>
+        <v>0.134008473726247</v>
       </c>
       <c r="E33">
-        <v>0.04642791060250378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01179335432288446</v>
+      </c>
+      <c r="F33">
+        <v>0.02387088028278806</v>
+      </c>
+      <c r="G33">
+        <v>0.02872350816171748</v>
+      </c>
+      <c r="H33">
+        <v>0.05597305086275407</v>
+      </c>
+      <c r="I33">
+        <v>0.01270423607516467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0270756090955852</v>
+        <v>0.01337168330143289</v>
       </c>
       <c r="C34">
-        <v>0.05837084594765748</v>
+        <v>0.06298804158154013</v>
       </c>
       <c r="D34">
-        <v>0.05502990253781385</v>
+        <v>0.0369172725379387</v>
       </c>
       <c r="E34">
-        <v>-0.03994675807425236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02843372702622984</v>
+      </c>
+      <c r="F34">
+        <v>-0.03756512167399839</v>
+      </c>
+      <c r="G34">
+        <v>0.01215692238550401</v>
+      </c>
+      <c r="H34">
+        <v>0.05623632996525248</v>
+      </c>
+      <c r="I34">
+        <v>0.007512556238760747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001616220819666108</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004183307206416608</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01467263591257261</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.001913668383876743</v>
+      </c>
+      <c r="F35">
+        <v>-0.000753016159852576</v>
+      </c>
+      <c r="G35">
+        <v>0.0005027046342425014</v>
+      </c>
+      <c r="H35">
+        <v>0.008475612142167164</v>
+      </c>
+      <c r="I35">
+        <v>-0.002650379115693666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01095718677163699</v>
+        <v>0.01281716070356413</v>
       </c>
       <c r="C36">
-        <v>0.004230406417684044</v>
+        <v>0.01760747858120141</v>
       </c>
       <c r="D36">
-        <v>0.1001230223557368</v>
+        <v>0.08786716821077478</v>
       </c>
       <c r="E36">
-        <v>0.04833238281447146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004960355026985734</v>
+      </c>
+      <c r="F36">
+        <v>0.0331306349975346</v>
+      </c>
+      <c r="G36">
+        <v>0.02378537513764091</v>
+      </c>
+      <c r="H36">
+        <v>0.05765967823567176</v>
+      </c>
+      <c r="I36">
+        <v>0.02628260124860264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008729360332239729</v>
+        <v>0.01761229952161088</v>
       </c>
       <c r="C38">
-        <v>0.0123280158304488</v>
+        <v>0.01758461515756715</v>
       </c>
       <c r="D38">
-        <v>0.09064011838453641</v>
+        <v>0.08790224277787045</v>
       </c>
       <c r="E38">
-        <v>0.03182202445709096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01542038595652504</v>
+      </c>
+      <c r="F38">
+        <v>-0.01266467432991608</v>
+      </c>
+      <c r="G38">
+        <v>0.03923747070349166</v>
+      </c>
+      <c r="H38">
+        <v>0.04364680252139268</v>
+      </c>
+      <c r="I38">
+        <v>0.01895295906731915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02104617535213262</v>
+        <v>0.01162938251340864</v>
       </c>
       <c r="C39">
-        <v>0.05752577800380747</v>
+        <v>0.07459575450663701</v>
       </c>
       <c r="D39">
-        <v>0.1157479337535855</v>
+        <v>0.1097039843503214</v>
       </c>
       <c r="E39">
-        <v>-0.01845495826995643</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04268970682453768</v>
+      </c>
+      <c r="F39">
+        <v>-0.009248657672514765</v>
+      </c>
+      <c r="G39">
+        <v>0.01909165750034552</v>
+      </c>
+      <c r="H39">
+        <v>0.1012729819973203</v>
+      </c>
+      <c r="I39">
+        <v>-0.03872381479730213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0132922978965341</v>
+        <v>0.008685165703091796</v>
       </c>
       <c r="C40">
-        <v>0.04077561712652579</v>
+        <v>0.04089284294692844</v>
       </c>
       <c r="D40">
-        <v>0.1184037366949447</v>
+        <v>0.09987029206326253</v>
       </c>
       <c r="E40">
-        <v>0.04286439855741244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01816518641685124</v>
+      </c>
+      <c r="F40">
+        <v>0.01827646221765795</v>
+      </c>
+      <c r="G40">
+        <v>0.2468202621435011</v>
+      </c>
+      <c r="H40">
+        <v>0.02019163869832676</v>
+      </c>
+      <c r="I40">
+        <v>0.1747749456287319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01851003099581524</v>
+        <v>0.01784511615692529</v>
       </c>
       <c r="C41">
-        <v>0.003375656809509137</v>
+        <v>0.01444107483570117</v>
       </c>
       <c r="D41">
-        <v>0.07458910961272851</v>
+        <v>0.05254014063900386</v>
       </c>
       <c r="E41">
-        <v>0.04404504464543302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01728364642567314</v>
+      </c>
+      <c r="F41">
+        <v>0.01517384230765524</v>
+      </c>
+      <c r="G41">
+        <v>0.02663708162903388</v>
+      </c>
+      <c r="H41">
+        <v>0.02659454654629511</v>
+      </c>
+      <c r="I41">
+        <v>0.03782522291106647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01079958505762582</v>
+        <v>0.01029300480587866</v>
       </c>
       <c r="C43">
-        <v>0.008422327185340989</v>
+        <v>0.01621376974012734</v>
       </c>
       <c r="D43">
-        <v>0.09120882398951533</v>
+        <v>0.06701977659454557</v>
       </c>
       <c r="E43">
-        <v>0.04128478306501702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005691792919405631</v>
+      </c>
+      <c r="F43">
+        <v>0.0127812816548951</v>
+      </c>
+      <c r="G43">
+        <v>0.03387695766255749</v>
+      </c>
+      <c r="H43">
+        <v>0.05823863573996074</v>
+      </c>
+      <c r="I43">
+        <v>0.03949757573094036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005932747429181096</v>
+        <v>0.008739726477561504</v>
       </c>
       <c r="C44">
-        <v>0.03973041637263142</v>
+        <v>0.04575306648726273</v>
       </c>
       <c r="D44">
-        <v>0.1003666666364232</v>
+        <v>0.1123180691807304</v>
       </c>
       <c r="E44">
-        <v>0.04773918282806253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.003216309133170062</v>
+      </c>
+      <c r="F44">
+        <v>0.02070697095803851</v>
+      </c>
+      <c r="G44">
+        <v>0.03326069358535977</v>
+      </c>
+      <c r="H44">
+        <v>0.04708157354832394</v>
+      </c>
+      <c r="I44">
+        <v>-0.02651798920962298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.008673017326181125</v>
+        <v>0.002387273931022784</v>
       </c>
       <c r="C46">
-        <v>0.02829183219085661</v>
+        <v>0.03692272541827174</v>
       </c>
       <c r="D46">
-        <v>0.107827079621465</v>
+        <v>0.08932482006946307</v>
       </c>
       <c r="E46">
-        <v>0.02940383035469589</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01724586105304966</v>
+      </c>
+      <c r="F46">
+        <v>0.02207474302766656</v>
+      </c>
+      <c r="G46">
+        <v>0.04983107240525222</v>
+      </c>
+      <c r="H46">
+        <v>0.1117917122351128</v>
+      </c>
+      <c r="I46">
+        <v>0.03358478024985995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07973216738679667</v>
+        <v>0.04397528977819322</v>
       </c>
       <c r="C47">
-        <v>0.1057567024311823</v>
+        <v>0.1191756158866295</v>
       </c>
       <c r="D47">
-        <v>0.06260419938450985</v>
+        <v>0.02710476756600886</v>
       </c>
       <c r="E47">
-        <v>0.03753714729100199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009468667925949099</v>
+      </c>
+      <c r="F47">
+        <v>-0.005080503335628353</v>
+      </c>
+      <c r="G47">
+        <v>-0.02318788409053328</v>
+      </c>
+      <c r="H47">
+        <v>0.03735823212084233</v>
+      </c>
+      <c r="I47">
+        <v>0.1209155287385648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006511424384184992</v>
+        <v>0.007047259070315046</v>
       </c>
       <c r="C48">
-        <v>0.01708545901512789</v>
+        <v>0.02685292715864203</v>
       </c>
       <c r="D48">
-        <v>0.09601700798034449</v>
+        <v>0.08905427704719661</v>
       </c>
       <c r="E48">
-        <v>0.06878411887737217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01097206165976608</v>
+      </c>
+      <c r="F48">
+        <v>0.03542165131106028</v>
+      </c>
+      <c r="G48">
+        <v>0.03985282775718463</v>
+      </c>
+      <c r="H48">
+        <v>0.07377901604069988</v>
+      </c>
+      <c r="I48">
+        <v>0.02618796106565176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04096387585460461</v>
+        <v>0.02021995260696244</v>
       </c>
       <c r="C50">
-        <v>0.06240371444812302</v>
+        <v>0.07321963615099505</v>
       </c>
       <c r="D50">
-        <v>0.07872634523463626</v>
+        <v>0.05347670778780424</v>
       </c>
       <c r="E50">
-        <v>0.02161661359367804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.001118350095986443</v>
+      </c>
+      <c r="F50">
+        <v>0.006658785952855459</v>
+      </c>
+      <c r="G50">
+        <v>0.03753500110425846</v>
+      </c>
+      <c r="H50">
+        <v>0.01893193304798495</v>
+      </c>
+      <c r="I50">
+        <v>0.09432430974299724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002833317756054697</v>
+        <v>0.004503176927546896</v>
       </c>
       <c r="C51">
-        <v>0.008646700478661642</v>
+        <v>0.01718403728018293</v>
       </c>
       <c r="D51">
-        <v>0.06687546955260201</v>
+        <v>0.07298527812108907</v>
       </c>
       <c r="E51">
-        <v>-0.003302535142114532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02955352862195938</v>
+      </c>
+      <c r="F51">
+        <v>0.03213586766279414</v>
+      </c>
+      <c r="G51">
+        <v>0.04664317484192023</v>
+      </c>
+      <c r="H51">
+        <v>0.04085606088086525</v>
+      </c>
+      <c r="I51">
+        <v>0.01039754592193438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1032992670266196</v>
+        <v>0.06697324841570103</v>
       </c>
       <c r="C53">
-        <v>0.1256378043012775</v>
+        <v>0.151887688486844</v>
       </c>
       <c r="D53">
-        <v>0.02077825042888691</v>
+        <v>-0.001637078432455683</v>
       </c>
       <c r="E53">
-        <v>0.07536853598069575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04002049730475839</v>
+      </c>
+      <c r="F53">
+        <v>0.06013646488910673</v>
+      </c>
+      <c r="G53">
+        <v>0.03060039466997017</v>
+      </c>
+      <c r="H53">
+        <v>0.002258955721844789</v>
+      </c>
+      <c r="I53">
+        <v>0.1033637987346517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01514756930055375</v>
+        <v>0.01174044202555524</v>
       </c>
       <c r="C54">
-        <v>0.02245682135758957</v>
+        <v>0.0363309018798457</v>
       </c>
       <c r="D54">
-        <v>0.1157491080527549</v>
+        <v>0.09336309616242253</v>
       </c>
       <c r="E54">
-        <v>0.01910902977468007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01020106705550605</v>
+      </c>
+      <c r="F54">
+        <v>-0.002052297763563432</v>
+      </c>
+      <c r="G54">
+        <v>0.05453681126810518</v>
+      </c>
+      <c r="H54">
+        <v>0.06832094309760285</v>
+      </c>
+      <c r="I54">
+        <v>0.06061190022992492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09249999414458933</v>
+        <v>0.05472295648645119</v>
       </c>
       <c r="C55">
-        <v>0.1036907856026371</v>
+        <v>0.1252388378256543</v>
       </c>
       <c r="D55">
-        <v>0.007246343894073052</v>
+        <v>-0.01624976892178757</v>
       </c>
       <c r="E55">
-        <v>0.02905798890829662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003307016016642248</v>
+      </c>
+      <c r="F55">
+        <v>0.02628894552900277</v>
+      </c>
+      <c r="G55">
+        <v>0.04042554892701376</v>
+      </c>
+      <c r="H55">
+        <v>-0.01092270576974883</v>
+      </c>
+      <c r="I55">
+        <v>0.08146011863061965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.129834562422784</v>
+        <v>0.07969801562663774</v>
       </c>
       <c r="C56">
-        <v>0.1325227255418792</v>
+        <v>0.1744229293210885</v>
       </c>
       <c r="D56">
-        <v>0.002301016825510213</v>
+        <v>-0.01764350241924099</v>
       </c>
       <c r="E56">
-        <v>0.03672959257399601</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03349993491028698</v>
+      </c>
+      <c r="F56">
+        <v>0.02184048592435164</v>
+      </c>
+      <c r="G56">
+        <v>0.04758039533247789</v>
+      </c>
+      <c r="H56">
+        <v>-0.02892490264802875</v>
+      </c>
+      <c r="I56">
+        <v>0.08949759857221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0179416624210376</v>
+        <v>-0.001628049357592979</v>
       </c>
       <c r="C58">
-        <v>0.01842228549370327</v>
+        <v>0.0428332146930596</v>
       </c>
       <c r="D58">
-        <v>0.2063040304899712</v>
+        <v>0.279738302089105</v>
       </c>
       <c r="E58">
-        <v>0.07188023520080886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.03650036569550898</v>
+      </c>
+      <c r="F58">
+        <v>0.08979408395354566</v>
+      </c>
+      <c r="G58">
+        <v>0.07141787310247333</v>
+      </c>
+      <c r="H58">
+        <v>-0.1523972348336916</v>
+      </c>
+      <c r="I58">
+        <v>-0.07516875330703061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1716509071467221</v>
+        <v>0.2322618310399041</v>
       </c>
       <c r="C59">
-        <v>-0.151926696020802</v>
+        <v>-0.09562208220780061</v>
       </c>
       <c r="D59">
-        <v>0.04377832176199913</v>
+        <v>0.06009835867460475</v>
       </c>
       <c r="E59">
-        <v>0.04745470509163152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03649498786971753</v>
+      </c>
+      <c r="F59">
+        <v>0.01040762905747696</v>
+      </c>
+      <c r="G59">
+        <v>-0.0002188643708121874</v>
+      </c>
+      <c r="H59">
+        <v>-0.01799686203333626</v>
+      </c>
+      <c r="I59">
+        <v>0.00502999191042415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2001876931210015</v>
+        <v>0.1621101913008798</v>
       </c>
       <c r="C60">
-        <v>0.1031360862199268</v>
+        <v>0.1636224492262205</v>
       </c>
       <c r="D60">
-        <v>0.1645944853127437</v>
+        <v>0.08632263922708944</v>
       </c>
       <c r="E60">
-        <v>-0.2602900899574899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2515184250113545</v>
+      </c>
+      <c r="F60">
+        <v>-0.1567761731482332</v>
+      </c>
+      <c r="G60">
+        <v>-0.2504452400758548</v>
+      </c>
+      <c r="H60">
+        <v>-0.1118725723552956</v>
+      </c>
+      <c r="I60">
+        <v>-0.03189551611273464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03225461259865333</v>
+        <v>0.01958460112126682</v>
       </c>
       <c r="C61">
-        <v>0.05619320796710613</v>
+        <v>0.07059774244832548</v>
       </c>
       <c r="D61">
-        <v>0.1129148522130847</v>
+        <v>0.08907038897818695</v>
       </c>
       <c r="E61">
-        <v>-0.0004629312477600698</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03504479779898097</v>
+      </c>
+      <c r="F61">
+        <v>-0.01811386047816746</v>
+      </c>
+      <c r="G61">
+        <v>0.00322476723313828</v>
+      </c>
+      <c r="H61">
+        <v>0.09516185125948569</v>
+      </c>
+      <c r="I61">
+        <v>0.01116177869744328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01069097195160862</v>
+        <v>0.006552751964873567</v>
       </c>
       <c r="C63">
-        <v>0.02427675298690149</v>
+        <v>0.03496759105293162</v>
       </c>
       <c r="D63">
-        <v>0.09467641496396362</v>
+        <v>0.07448276749191499</v>
       </c>
       <c r="E63">
-        <v>0.01362255328156449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02057214143782403</v>
+      </c>
+      <c r="F63">
+        <v>0.01873432990463032</v>
+      </c>
+      <c r="G63">
+        <v>0.03048745725321374</v>
+      </c>
+      <c r="H63">
+        <v>0.05213495495696583</v>
+      </c>
+      <c r="I63">
+        <v>0.01019155690169169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06102313172407232</v>
+        <v>0.0324386070743306</v>
       </c>
       <c r="C64">
-        <v>0.08355106266300658</v>
+        <v>0.1008672652915024</v>
       </c>
       <c r="D64">
-        <v>0.05369715396824149</v>
+        <v>0.03961065292060633</v>
       </c>
       <c r="E64">
-        <v>0.01264082438554538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03132127449624615</v>
+      </c>
+      <c r="F64">
+        <v>0.02403659947774409</v>
+      </c>
+      <c r="G64">
+        <v>-0.02539722139032612</v>
+      </c>
+      <c r="H64">
+        <v>0.1158594045978775</v>
+      </c>
+      <c r="I64">
+        <v>-0.0225416146013643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02612117192600729</v>
+        <v>0.02171282893176721</v>
       </c>
       <c r="C65">
-        <v>0.0166505619339425</v>
+        <v>0.03631218008665109</v>
       </c>
       <c r="D65">
-        <v>0.1176565070231118</v>
+        <v>0.1068694595571305</v>
       </c>
       <c r="E65">
-        <v>0.003074691714910642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03818833886229537</v>
+      </c>
+      <c r="F65">
+        <v>0.006709420335139428</v>
+      </c>
+      <c r="G65">
+        <v>0.009447427819158393</v>
+      </c>
+      <c r="H65">
+        <v>0.01114182587725047</v>
+      </c>
+      <c r="I65">
+        <v>0.01327396128418207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02523097403457429</v>
+        <v>0.01393653801694547</v>
       </c>
       <c r="C66">
-        <v>0.06369520463292921</v>
+        <v>0.08655129105551146</v>
       </c>
       <c r="D66">
-        <v>0.1226586467981991</v>
+        <v>0.1336803677423776</v>
       </c>
       <c r="E66">
-        <v>-0.02168523226761979</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03517997340335554</v>
+      </c>
+      <c r="F66">
+        <v>-0.01883268221173429</v>
+      </c>
+      <c r="G66">
+        <v>0.01194422068013351</v>
+      </c>
+      <c r="H66">
+        <v>0.05806166312581191</v>
+      </c>
+      <c r="I66">
+        <v>-0.05320419385701245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.029112603001415</v>
+        <v>0.02922225507211357</v>
       </c>
       <c r="C67">
-        <v>0.02398618136793344</v>
+        <v>0.03047632393562455</v>
       </c>
       <c r="D67">
-        <v>0.04424094879207318</v>
+        <v>0.03605519422535113</v>
       </c>
       <c r="E67">
-        <v>0.006351413573585998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.000149137649882472</v>
+      </c>
+      <c r="F67">
+        <v>-0.03319388039643625</v>
+      </c>
+      <c r="G67">
+        <v>0.0310391457864394</v>
+      </c>
+      <c r="H67">
+        <v>0.05508734989685082</v>
+      </c>
+      <c r="I67">
+        <v>0.009832390882983776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2093272805746881</v>
+        <v>0.2615011061110499</v>
       </c>
       <c r="C68">
-        <v>-0.165383044449093</v>
+        <v>-0.09718867182959375</v>
       </c>
       <c r="D68">
-        <v>0.0316951389756231</v>
+        <v>0.03000687201365124</v>
       </c>
       <c r="E68">
-        <v>0.0126088260603742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003038330100086133</v>
+      </c>
+      <c r="F68">
+        <v>0.02456582935201404</v>
+      </c>
+      <c r="G68">
+        <v>0.04942108908004574</v>
+      </c>
+      <c r="H68">
+        <v>-0.04961416637493319</v>
+      </c>
+      <c r="I68">
+        <v>0.07226364801144645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06172104421631999</v>
+        <v>0.03149961123945824</v>
       </c>
       <c r="C69">
-        <v>0.1147480813220101</v>
+        <v>0.1195408228536042</v>
       </c>
       <c r="D69">
-        <v>0.08838478585324301</v>
+        <v>0.04445514828033827</v>
       </c>
       <c r="E69">
-        <v>0.0172944357745955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007273267179264516</v>
+      </c>
+      <c r="F69">
+        <v>-0.01009266393220281</v>
+      </c>
+      <c r="G69">
+        <v>-0.01061706199954426</v>
+      </c>
+      <c r="H69">
+        <v>0.03989707678861619</v>
+      </c>
+      <c r="I69">
+        <v>0.07324759178949633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2099014417358265</v>
+        <v>0.2605620542371722</v>
       </c>
       <c r="C71">
-        <v>-0.1827651365320153</v>
+        <v>-0.112922814853722</v>
       </c>
       <c r="D71">
-        <v>0.03696002546944206</v>
+        <v>0.02749867210724793</v>
       </c>
       <c r="E71">
-        <v>0.02714196624452102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008884424750594953</v>
+      </c>
+      <c r="F71">
+        <v>0.0248598089751653</v>
+      </c>
+      <c r="G71">
+        <v>0.05258016994411183</v>
+      </c>
+      <c r="H71">
+        <v>-0.01201970069594427</v>
+      </c>
+      <c r="I71">
+        <v>0.1577208812433989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1028155157401206</v>
+        <v>0.06749078263265189</v>
       </c>
       <c r="C72">
-        <v>0.07382809534056987</v>
+        <v>0.1167105053210613</v>
       </c>
       <c r="D72">
-        <v>0.09669720076779635</v>
+        <v>0.07254577796090718</v>
       </c>
       <c r="E72">
-        <v>-0.04789227110870565</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08804618193087435</v>
+      </c>
+      <c r="F72">
+        <v>-0.007163417476396685</v>
+      </c>
+      <c r="G72">
+        <v>0.009888060992713197</v>
+      </c>
+      <c r="H72">
+        <v>0.05547835074382204</v>
+      </c>
+      <c r="I72">
+        <v>-0.01183139287814558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1808222068608701</v>
+        <v>0.1477770928560898</v>
       </c>
       <c r="C73">
-        <v>0.04847717128374997</v>
+        <v>0.1205969281408711</v>
       </c>
       <c r="D73">
-        <v>0.2122159126733711</v>
+        <v>0.08463775494163139</v>
       </c>
       <c r="E73">
-        <v>-0.430013354985343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.4341275719834796</v>
+      </c>
+      <c r="F73">
+        <v>-0.2317699635430839</v>
+      </c>
+      <c r="G73">
+        <v>-0.4347649227147707</v>
+      </c>
+      <c r="H73">
+        <v>-0.02055280854020972</v>
+      </c>
+      <c r="I73">
+        <v>-0.02741408835265097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1036976535062358</v>
+        <v>0.06225083587914111</v>
       </c>
       <c r="C74">
-        <v>0.1102306452773334</v>
+        <v>0.1356385907310608</v>
       </c>
       <c r="D74">
-        <v>-0.01795364424387091</v>
+        <v>-0.03368840677635797</v>
       </c>
       <c r="E74">
-        <v>0.05506976049087869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01846980126522536</v>
+      </c>
+      <c r="F74">
+        <v>0.05306975987447662</v>
+      </c>
+      <c r="G74">
+        <v>0.004150260937201155</v>
+      </c>
+      <c r="H74">
+        <v>-0.02035971864014343</v>
+      </c>
+      <c r="I74">
+        <v>0.09385904974859968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2395486966971776</v>
+        <v>0.1532316901705482</v>
       </c>
       <c r="C75">
-        <v>0.1958511648495527</v>
+        <v>0.255753308375082</v>
       </c>
       <c r="D75">
-        <v>-0.1044092886724162</v>
+        <v>-0.130463794775135</v>
       </c>
       <c r="E75">
-        <v>0.01934102430510658</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08091402898077639</v>
+      </c>
+      <c r="F75">
+        <v>-0.03381903386001841</v>
+      </c>
+      <c r="G75">
+        <v>0.06157353190590599</v>
+      </c>
+      <c r="H75">
+        <v>-0.02551613880773014</v>
+      </c>
+      <c r="I75">
+        <v>0.06114392058685088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1413243303427426</v>
+        <v>0.08523704479459973</v>
       </c>
       <c r="C76">
-        <v>0.1385970047108861</v>
+        <v>0.1749668445669732</v>
       </c>
       <c r="D76">
-        <v>0.01333748201229685</v>
+        <v>-0.02072973626431475</v>
       </c>
       <c r="E76">
-        <v>0.04395279806642643</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03530345312278477</v>
+      </c>
+      <c r="F76">
+        <v>0.01143009821001178</v>
+      </c>
+      <c r="G76">
+        <v>0.05824944511540462</v>
+      </c>
+      <c r="H76">
+        <v>0.008204624138811839</v>
+      </c>
+      <c r="I76">
+        <v>0.09217215457494211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02533897530326964</v>
+        <v>0.03587840223567264</v>
       </c>
       <c r="C77">
-        <v>0.08430681637461901</v>
+        <v>0.09661340646134704</v>
       </c>
       <c r="D77">
-        <v>0.05861505921485381</v>
+        <v>0.2435640078561025</v>
       </c>
       <c r="E77">
-        <v>0.324054827575425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7130941457136792</v>
+      </c>
+      <c r="F77">
+        <v>-0.3660944830086003</v>
+      </c>
+      <c r="G77">
+        <v>-0.3609948915377412</v>
+      </c>
+      <c r="H77">
+        <v>-0.206793016325894</v>
+      </c>
+      <c r="I77">
+        <v>0.1289573318232251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02476987373205122</v>
+        <v>0.0212722097464503</v>
       </c>
       <c r="C78">
-        <v>0.06988511534154489</v>
+        <v>0.08288186155165608</v>
       </c>
       <c r="D78">
-        <v>0.1608679056346549</v>
+        <v>0.1424954687421852</v>
       </c>
       <c r="E78">
-        <v>0.02353884648086338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04470118171453322</v>
+      </c>
+      <c r="F78">
+        <v>0.03829999992602701</v>
+      </c>
+      <c r="G78">
+        <v>0.01796242624645844</v>
+      </c>
+      <c r="H78">
+        <v>0.01981194014161074</v>
+      </c>
+      <c r="I78">
+        <v>-0.01427714147841129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07548381927789645</v>
+        <v>0.04461371507473653</v>
       </c>
       <c r="C79">
-        <v>0.1472265987790197</v>
+        <v>0.1694562112512185</v>
       </c>
       <c r="D79">
-        <v>-0.09256566566523025</v>
+        <v>-0.04754554741214258</v>
       </c>
       <c r="E79">
-        <v>0.5903367939693053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1317402514674071</v>
+      </c>
+      <c r="F79">
+        <v>0.795814906909234</v>
+      </c>
+      <c r="G79">
+        <v>-0.4536693069467763</v>
+      </c>
+      <c r="H79">
+        <v>-0.06106250573374596</v>
+      </c>
+      <c r="I79">
+        <v>-0.1288326623607357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009575203136803549</v>
+        <v>0.002956562608603868</v>
       </c>
       <c r="C80">
-        <v>0.05019240848732811</v>
+        <v>0.05167398522822956</v>
       </c>
       <c r="D80">
-        <v>0.04514139352030139</v>
+        <v>0.04115931570991862</v>
       </c>
       <c r="E80">
-        <v>0.003133366151700271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.01876057384060578</v>
+      </c>
+      <c r="F80">
+        <v>0.01528649066790303</v>
+      </c>
+      <c r="G80">
+        <v>0.06591088965247323</v>
+      </c>
+      <c r="H80">
+        <v>0.005562602494187933</v>
+      </c>
+      <c r="I80">
+        <v>0.02770953048319828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1194227067846411</v>
+        <v>0.0651783261062021</v>
       </c>
       <c r="C81">
-        <v>0.1384904642802594</v>
+        <v>0.1636723013419592</v>
       </c>
       <c r="D81">
-        <v>-0.06678292634999741</v>
+        <v>-0.07608152858111501</v>
       </c>
       <c r="E81">
-        <v>0.1007164310655272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07503030871405884</v>
+      </c>
+      <c r="F81">
+        <v>0.05190762263390825</v>
+      </c>
+      <c r="G81">
+        <v>0.08129777707074962</v>
+      </c>
+      <c r="H81">
+        <v>0.0404383557766944</v>
+      </c>
+      <c r="I81">
+        <v>0.122866260583283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2440462019035908</v>
+        <v>0.1299190351314134</v>
       </c>
       <c r="C82">
-        <v>0.2978913160925709</v>
+        <v>0.3193156898062053</v>
       </c>
       <c r="D82">
-        <v>-0.2103261325424448</v>
+        <v>-0.2226848618012404</v>
       </c>
       <c r="E82">
-        <v>-0.07054123610291901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03928369283461387</v>
+      </c>
+      <c r="F82">
+        <v>-0.1076451566422078</v>
+      </c>
+      <c r="G82">
+        <v>0.08113461565741555</v>
+      </c>
+      <c r="H82">
+        <v>0.05987536273553996</v>
+      </c>
+      <c r="I82">
+        <v>0.08560587016586074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004448349876191918</v>
+        <v>-0.007828234137528655</v>
       </c>
       <c r="C83">
-        <v>0.05958179857936263</v>
+        <v>0.04794916020813847</v>
       </c>
       <c r="D83">
-        <v>0.02703910824612974</v>
+        <v>0.04471828074269154</v>
       </c>
       <c r="E83">
-        <v>0.07395492280191934</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.1048239933101146</v>
+      </c>
+      <c r="F83">
+        <v>-0.005160025412692106</v>
+      </c>
+      <c r="G83">
+        <v>0.05994274616310977</v>
+      </c>
+      <c r="H83">
+        <v>0.06181789501106652</v>
+      </c>
+      <c r="I83">
+        <v>-0.08471238477020962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001415008305062883</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01292262533312801</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.03666246264301386</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.006170190008381791</v>
+      </c>
+      <c r="F84">
+        <v>0.01838395822344288</v>
+      </c>
+      <c r="G84">
+        <v>0.03676371812495442</v>
+      </c>
+      <c r="H84">
+        <v>-0.01294211905046091</v>
+      </c>
+      <c r="I84">
+        <v>-0.02985941087160956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.150180727554265</v>
+        <v>0.08741787114546658</v>
       </c>
       <c r="C85">
-        <v>0.1426105823453663</v>
+        <v>0.1859990449117756</v>
       </c>
       <c r="D85">
-        <v>-0.04759101031202377</v>
+        <v>-0.08899579091418774</v>
       </c>
       <c r="E85">
-        <v>0.0007278916634665803</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0003551719303448446</v>
+      </c>
+      <c r="F85">
+        <v>0.07364171315311324</v>
+      </c>
+      <c r="G85">
+        <v>0.02067303390822151</v>
+      </c>
+      <c r="H85">
+        <v>-0.01161823558052943</v>
+      </c>
+      <c r="I85">
+        <v>0.07242438146733007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0149550617926437</v>
+        <v>0.01403800876895259</v>
       </c>
       <c r="C86">
-        <v>0.02553973189287292</v>
+        <v>0.03109885008185782</v>
       </c>
       <c r="D86">
-        <v>0.08831401050621505</v>
+        <v>0.1035425638579131</v>
       </c>
       <c r="E86">
-        <v>0.06844923817221643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04538111941194969</v>
+      </c>
+      <c r="F86">
+        <v>-0.01672378227998204</v>
+      </c>
+      <c r="G86">
+        <v>0.01505955189057365</v>
+      </c>
+      <c r="H86">
+        <v>0.004740842282931782</v>
+      </c>
+      <c r="I86">
+        <v>0.1276702734820505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0221917763921302</v>
+        <v>0.02407062956657598</v>
       </c>
       <c r="C87">
-        <v>0.0206234825363844</v>
+        <v>0.04516819875964377</v>
       </c>
       <c r="D87">
-        <v>0.1220263216880541</v>
+        <v>0.1476290643415154</v>
       </c>
       <c r="E87">
-        <v>0.05644276465127576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01826725835250263</v>
+      </c>
+      <c r="F87">
+        <v>0.03800517959292115</v>
+      </c>
+      <c r="G87">
+        <v>0.06170803350525019</v>
+      </c>
+      <c r="H87">
+        <v>0.01853281435238786</v>
+      </c>
+      <c r="I87">
+        <v>-0.08047093167955918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06185363309439348</v>
+        <v>0.04142550992146578</v>
       </c>
       <c r="C88">
-        <v>0.04311139314994637</v>
+        <v>0.06323615184120981</v>
       </c>
       <c r="D88">
-        <v>0.04674723242675593</v>
+        <v>0.01332184222385293</v>
       </c>
       <c r="E88">
-        <v>0.02780172402202572</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02111749004231287</v>
+      </c>
+      <c r="F88">
+        <v>0.02362098330646818</v>
+      </c>
+      <c r="G88">
+        <v>-0.008435056729579001</v>
+      </c>
+      <c r="H88">
+        <v>0.02299187477927093</v>
+      </c>
+      <c r="I88">
+        <v>0.04011524221355925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3187019143498682</v>
+        <v>0.394305575318925</v>
       </c>
       <c r="C89">
-        <v>-0.330956993912072</v>
+        <v>-0.2068203576882364</v>
       </c>
       <c r="D89">
-        <v>0.02415926818138504</v>
+        <v>0.02343338471926036</v>
       </c>
       <c r="E89">
-        <v>0.1352145741608058</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05469949506917653</v>
+      </c>
+      <c r="F89">
+        <v>0.05756967095623094</v>
+      </c>
+      <c r="G89">
+        <v>0.1003056182542477</v>
+      </c>
+      <c r="H89">
+        <v>0.1773920947406951</v>
+      </c>
+      <c r="I89">
+        <v>-0.311897807946544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2530880443211929</v>
+        <v>0.3079807138931748</v>
       </c>
       <c r="C90">
-        <v>-0.2463618688335404</v>
+        <v>-0.1442514519537682</v>
       </c>
       <c r="D90">
-        <v>0.0318656551816171</v>
+        <v>0.03781071777538809</v>
       </c>
       <c r="E90">
-        <v>0.01011552089541859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01184050995648698</v>
+      </c>
+      <c r="F90">
+        <v>-0.01435132759731449</v>
+      </c>
+      <c r="G90">
+        <v>0.04686752345859454</v>
+      </c>
+      <c r="H90">
+        <v>-0.03500749269176773</v>
+      </c>
+      <c r="I90">
+        <v>0.06009344828895068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1571154025950744</v>
+        <v>0.09091504240356191</v>
       </c>
       <c r="C91">
-        <v>0.1827730988301475</v>
+        <v>0.2048032762817504</v>
       </c>
       <c r="D91">
-        <v>-0.1052505784689811</v>
+        <v>-0.1113276426891044</v>
       </c>
       <c r="E91">
-        <v>0.1139868200896463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07785056031091545</v>
+      </c>
+      <c r="F91">
+        <v>0.07820235143243855</v>
+      </c>
+      <c r="G91">
+        <v>0.02160953356390182</v>
+      </c>
+      <c r="H91">
+        <v>-0.01447021832869668</v>
+      </c>
+      <c r="I91">
+        <v>0.1181743479464104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2283621056271305</v>
+        <v>0.3132340342275051</v>
       </c>
       <c r="C92">
-        <v>-0.2570837378191333</v>
+        <v>-0.1794055584609511</v>
       </c>
       <c r="D92">
-        <v>-0.03933193847018914</v>
+        <v>-0.001509589842936906</v>
       </c>
       <c r="E92">
-        <v>0.06751274272593893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07737565015531594</v>
+      </c>
+      <c r="F92">
+        <v>0.02371721778721014</v>
+      </c>
+      <c r="G92">
+        <v>0.0217487031989408</v>
+      </c>
+      <c r="H92">
+        <v>0.003126799517619969</v>
+      </c>
+      <c r="I92">
+        <v>-0.08205793644547767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2784164762205024</v>
+        <v>0.3246464958161429</v>
       </c>
       <c r="C93">
-        <v>-0.2538432951023372</v>
+        <v>-0.1500813383982571</v>
       </c>
       <c r="D93">
-        <v>0.01679021002045281</v>
+        <v>-0.01226184363174936</v>
       </c>
       <c r="E93">
-        <v>-0.003890603974463174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.03574904264070158</v>
+      </c>
+      <c r="F93">
+        <v>0.01413164709755468</v>
+      </c>
+      <c r="G93">
+        <v>-0.02748536041485261</v>
+      </c>
+      <c r="H93">
+        <v>-0.02432802803087025</v>
+      </c>
+      <c r="I93">
+        <v>0.1055446624545076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3103800373007757</v>
+        <v>0.1895588473615276</v>
       </c>
       <c r="C94">
-        <v>0.265624799438742</v>
+        <v>0.3445008593790613</v>
       </c>
       <c r="D94">
-        <v>-0.3620408949949796</v>
+        <v>-0.3591992622900623</v>
       </c>
       <c r="E94">
-        <v>-0.144966921412255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04809424373313206</v>
+      </c>
+      <c r="F94">
+        <v>-0.1086724054641226</v>
+      </c>
+      <c r="G94">
+        <v>0.2642081615224765</v>
+      </c>
+      <c r="H94">
+        <v>-0.1275047412377834</v>
+      </c>
+      <c r="I94">
+        <v>-0.4083024315131282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02855491639723255</v>
+        <v>0.02723609379406143</v>
       </c>
       <c r="C95">
-        <v>0.03789299371162404</v>
+        <v>0.06179272410689537</v>
       </c>
       <c r="D95">
-        <v>0.0799380995913288</v>
+        <v>0.1130773711751773</v>
       </c>
       <c r="E95">
-        <v>0.185295596879015</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.2144572202023854</v>
+      </c>
+      <c r="F95">
+        <v>-0.1385505522613651</v>
+      </c>
+      <c r="G95">
+        <v>-0.1275186280783045</v>
+      </c>
+      <c r="H95">
+        <v>0.4679814108556035</v>
+      </c>
+      <c r="I95">
+        <v>-0.5205612995629435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008723352173113681</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001747965350862271</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008938358359947839</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0003837170851879656</v>
+      </c>
+      <c r="F97">
+        <v>-0.001631736699308305</v>
+      </c>
+      <c r="G97">
+        <v>-0.001249536010535109</v>
+      </c>
+      <c r="H97">
+        <v>0.0003651317254853691</v>
+      </c>
+      <c r="I97">
+        <v>0.0001692192599761009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1526751733630557</v>
+        <v>0.1288828493089625</v>
       </c>
       <c r="C98">
-        <v>0.06940878007800706</v>
+        <v>0.1267200365276278</v>
       </c>
       <c r="D98">
-        <v>0.1231555030892262</v>
+        <v>0.06458127710450542</v>
       </c>
       <c r="E98">
-        <v>-0.279060488861825</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2877048181528575</v>
+      </c>
+      <c r="F98">
+        <v>-0.1505750934430042</v>
+      </c>
+      <c r="G98">
+        <v>-0.2563699082733168</v>
+      </c>
+      <c r="H98">
+        <v>-0.06404787931360684</v>
+      </c>
+      <c r="I98">
+        <v>-0.02291144445429684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001766110785202265</v>
+        <v>0.001232845011053316</v>
       </c>
       <c r="C101">
-        <v>0.02022955760103426</v>
+        <v>0.02806433987250509</v>
       </c>
       <c r="D101">
-        <v>0.1029428610157125</v>
+        <v>0.1025534474984446</v>
       </c>
       <c r="E101">
-        <v>0.02148357043237724</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03159923475762288</v>
+      </c>
+      <c r="F101">
+        <v>0.03008873958680593</v>
+      </c>
+      <c r="G101">
+        <v>0.05165570857469811</v>
+      </c>
+      <c r="H101">
+        <v>0.1022973051199551</v>
+      </c>
+      <c r="I101">
+        <v>0.02952533320553442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1109190674675598</v>
+        <v>0.05428697964101093</v>
       </c>
       <c r="C102">
-        <v>0.1523610305949985</v>
+        <v>0.1521378844597422</v>
       </c>
       <c r="D102">
-        <v>-0.07178793381116039</v>
+        <v>-0.09097314799792923</v>
       </c>
       <c r="E102">
-        <v>-0.01765689257653692</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0288925641772314</v>
+      </c>
+      <c r="F102">
+        <v>-0.06631791982056703</v>
+      </c>
+      <c r="G102">
+        <v>-0.001117603084011277</v>
+      </c>
+      <c r="H102">
+        <v>0.05120660445277115</v>
+      </c>
+      <c r="I102">
+        <v>0.01984450515246725</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
